--- a/outputs/story_prompt_ex.xlsx
+++ b/outputs/story_prompt_ex.xlsx
@@ -456,9 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - God or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Not comfortable with him taking the pill - his choice; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - positive benefits; 20	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - no pressure to take it; 26	Comfortable with him taking the pill - legal or prescribed; 27	Comfortable with him taking the pill - God or religious concerns; 28	Not comfortable with him taking the pill - permanent changes (brain concern?)</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -473,10 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill â€“ changing the brain; 6	Not comfortable with him taking the pill - side effect; 7	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - God or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Not comfortable with him taking the pill - permanent changes (brain concern?)
-16	Comfortable with him taking the pill - his choice; 17	Comfortable with him taking the pill - not changing anything fundamental; 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 20	Comfortable with him taking the pill - comfortable with pills and medication; 21	Comfortable with him taking the pill - comfortable with himself; 22	Comfortable with him taking the pill - positive benefits; 23	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 24	Comfortable with him taking the pill - benefits outweight the risks; 25	Comfortable with him taking the pill - consent/informed decision; 26	Comfortable with him taking the pill - no pressure to take it; 27	Comfortable with him taking the pill - legal or prescribed; 28	Comfortable with him taking the pill - no harm to himself or others; 29	Comfortable with him taking the pill - other specific reason; 30	Comfortable with him taking the pill - the participant's comments about the individual</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -491,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - impact; 8	Not comfortable with him taking the pill - moral; 9	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -506,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing something fundamental; 5	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Comfortable with him taking the pill - consent/informed decision; 10	Comfortable with him taking the pill - no pressure to take it; 12	Not comfortable with him taking the pill - legal or prescribed; 15	Comfortable with him taking the pill - permanent changes (brain concern?); 16	Comfortable with him taking the pill - not changing anything fundamental; 18	Comfortable with him taking the pill - his choice; 20	Comfortable with him taking the pill - minor or no side effects; 24	Comfortable with him taking the pill - his choice</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 15	Not comfortable with him taking the pill - permanent changes (brain concern?); 17	Comfortable with him taking the pill - not changing anything fundamental.</t>
         </is>
       </c>
     </row>
@@ -536,23 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain function; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive function; 8	Not comfortable with him taking the pill - affective function; 5	Not comfortable with him taking the pill - side effect; 3	Not comfortable with him taking the pill - cognitive function; 6	Not comfortable with him taking the pill - affective function; 7	Not comfortable with him taking the pill - general concerns about pills; 6	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence; 10	Not comfortable with him taking the pill - addiction; 11	Not comfortable with him taking the pill - social pressure to fit in; 12	Not comfortable with him taking the pill - legal or prescribed; 13	Not comfortable with him taking the pill - god or religious concerns; 14	Not comfortable with him taking the pill - other: fairness, social issues, character
-15	Not comfortable with him taking the pill - permanent changes (brain concern?)
-16	Comfortable with him taking the pill - no specific reason
-17	Comfortable with him taking the pill - not changing anything fundamental
-18	Comfortable with him taking the pill - his choice
-19	Comfortable with him taking the pill - minor or no side effects
-20	Comfortable with him taking the pill - comfortable with pills and medication
-21	Comfortable with him taking the pill - comfortable with medications
-22	Comfortable with him taking the pill - positive benefits
-23	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves
-24	Comfortable with him taking the pill - benefits outweight the risks
-25	Comfortable with him taking the pill - consent/informed decision
-26	Comfortable with him taking the pill - no pressure to take it
-27	Comfortable with him taking the pill - legal or prescribed
-28	Comfortable with him taking the pill - no harm to himself or others
-29	Comfortable with him taking the pill - other specific reason
-30	Other</t>
+          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - changing the brain; 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary.</t>
         </is>
       </c>
     </row>
@@ -567,8 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive; 8	Not comfortable with him taking the pill - affective; 9	Not comfortable with him taking the pill - social
-Comment:John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.</t>
+          <t xml:space="preserve"> 2	Not comfortable with him taking the pill - changing something fundamental; 5	Not comfortable with him taking the pill - general concerns about pills; 7	Not comfortable with him taking the pill - naturalistic moral concerns; 19	Comfortable with him taking the pill - minor or no side effects.</t>
         </is>
       </c>
     </row>
@@ -583,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other side effect; 8	Not comfortable with him taking the pill - benefits; 9	Not comfortable with him taking the pill - consent/informed decision; 10	Not comfortable with him taking the pill - social pressure; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - brain concern; 13	Not comfortable with him taking the pill - status quo - new pill; 14	Not comfortable with him taking the pill - permanent changes - brain concern; 15	Not comfortable with him taking the pill - status quo - new pill; 16	Not comfortable with him taking the pill - permanent changes - side effect; 17	Not comfortable with him taking the pill - general concerns about pills; 18	Not comfortable with him taking the pill - side effect; 19	Not comfortable with him taking the pill - general concerns about pills; 20	Not comfortable with him taking the pill - risks outweight the benefits</t>
+          <t xml:space="preserve"> 19	Comfortable with him taking the pill - minor or no side effects; 21	Comfortable with him taking the pill - positive benefits; 24	Comfortable with him taking the pill - consent/informed decision; 26	Comfortable with him taking the pill - legal or prescribed; 27	Comfortable with him taking the pill - no harm to himself or others.</t>
         </is>
       </c>
     </row>
@@ -598,14 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive; 8	Not comfortable with him taking the pill - affective; 9	Not comfortable with him taking the pill - social; 11	Comfortable with him taking the pill - social pressure to fit in; 24	Comfortable with him taking the pill - benefits; 25	Comfortable with him taking the pill - consent/informed decision
-26	Comfortable with him taking the pill - legal or prescribed
-27	Comfortable with him taking the pill - no harm to himself or others
-28	Comfortable with him taking the pill - other specific reason
-29	Other
-Comment: "I am not comfortable with him taking the pill. I would be worried about the long term effects of the pill if he were to take it."
-Codes: 5	Not comfortable with him taking the pill - brain; 8	Not comfortable with him taking the pill - affective; 9	Not comfortable with him taking the pill - social; 11	Comfortable with him taking the pill - social pressure to fit in; 18	Comfortable with him taking the pill - choiceComment:
-I am not comfortable with him taking the pill. I would be worried about the long term effects of the pill if he were to take it.Codes: 3	Not comfortable with him taking the pill - cognitive; 5	Not comfortable with him taking the pill - affective; 2	Not comfortable with him taking the pill - social; 8	Not comfortable with him taking the pill - naturalistic moral concerns; 9	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - changing the brain; 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 8	Not comfortable with him taking the pill - risks outweight the benefits; 15	Not comfortable with him taking the pill - permanent changes (brain concern?)</t>
         </is>
       </c>
     </row>
@@ -620,13 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing something fundamental; 5	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - moral concerns; 9	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - legal or prescribed
-2	Not comfortable with him taking the pill - using science or other means to improve ourselves
-3	Not comfortable with him taking the pill - changing something fundamental; 5	Not comfortable with him taking the pill - changing the brain; 7	Not comfortable with him taking the pill - side effect; 8	Not comfortable with him taking the pill - general concerns about pills; 9	Comfortable with him taking the pill - social pressure to fit in; 10	Comfortable with him taking the pill - legal or prescribed; 11	Comfortable with him taking the pill - new pill; 12	Comfortable with him taking the pill - growth/lack of growth
-3	Not comfortable with him taking the pill - growth; 5	Not comfortable with him taking the pill - subclinical deficit; 7	Not comfortable with him taking the pill - growth; 10	Comfortable with him taking the pill - growth/lack of growth
-4	Not comfortable with him taking the pill - side effect; 5	Not comfortable with him taking the pill - subclinical deficit; 7	Not comfortable with him taking the pill - growth; 10	Comfortable with him taking the pill - growth/lack of growth
-5	Not comfortable with him taking the pill - growth; 5	Not comfortable with him taking the pill - subclinical deficit; 7	Not comfortable with him taking the pill - growth; 10	Comfortable with him taking the pill - growth/lack of growth
-6	Not comfortable with him taking the pill - general concerns about pills; 5	Not comfortable with him taking the pill - side effect; 7	Not comfortable with him taking the pill - growth; 8	Not comfortable with him taking the pill - growth</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 21	Comfortable with him taking the pill - positive benefits; 24	Comfortable with him taking the pill - consent/informed decision</t>
         </is>
       </c>
     </row>
@@ -641,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 7	Not comfortable with him taking the pill - naturalistic moral concerns; 8	Not comfortable with him taking the pill - risks outweight the benefits; 24	Comfortable with him taking the pill - consent/informed decision; 29	Other</t>
         </is>
       </c>
     </row>
@@ -656,9 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive; 8	Not comfortable with him taking the pill - affective; 9	Not comfortable with him taking the pill - social; 10	Comfortable with him taking the pill - social pressure to fit in; 11	Comfortable with him taking the pill - legal or prescribed; 12	Comfortable with him taking the pill - no harm to himself or others; 13	Comfortable with him taking the pill - other: fairness, social issues, character
-14	Comfortable with him taking the pill - permanent changes (brain concern?)
-15	Comfortable with him taking the pill - his choice; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - the benefits of using science or other means to improve oneself are clear to the participant; 19	Comfortable with him taking the pill - the benefits outweight the risks; 20	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -673,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - clear case of enhancement; 2	Not comfortable with him taking the pill - changing something fundamental; 4	Not comfortable with him taking the pill - something that most people recognize as a clear case of enhancement; 6	Not comfortable with him taking the pill - side effect - general concerns about pills; 9	Not comfortable with him taking the pill - risks outweight the benefits - consent/informed decision; 12	Not comfortable with him taking the pill - his choice - or scientific or other means to improve ourselves?; 15	Not comfortable with him taking the pill - the new pill - permanent changes (brain concern?); 16	Comfortable with him taking the pill - his choice - or the pill - for the moment; 19	Comfortable with him taking the pill - minor or no side effects - comfortable with pills and medication; 20	Comfortable with him taking the pill - his choice - or the pill - for the moment; 23	Comfortable with him taking the pill - his choice - or the pill - for the moment; 24	Comfortable with him taking the pill - his choice - or the pill - for the moment; 25	Comfortable with him taking the pill - his choice - or the pill - for the moment; 26	Comfortable with him taking the pill - his choice - or the pill - for the moment; 27	Comfortable with him taking the pill - his choice - or the pill - for the moment; 28	Comfortable with him taking the pill - his choice - or the pill - for the moment; 29	Comfortable with him taking the pill - his choice - or the pill - for the moment; 30	Comfortable with him taking the pill - his choice - or the pill - for the moment.</t>
+          <t xml:space="preserve"> 5	Not comfortable with him taking the pill - general concerns about pills; 7	Not comfortable with him taking the pill - naturalistic moral concerns; 15	Not comfortable with him taking the pill - permanent changes (brain concern?)</t>
         </is>
       </c>
     </row>
@@ -688,8 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other side effect; 8	Not comfortable with him taking the pill - general concerns about pills; 9	Comfortable with him taking the pill - consent/informed decision; 10	Comfortable with him taking the pill - no pressure to take it; 11	Comfortable with him taking the pill - legal or prescribed
-12	Comfortable with him taking the pill - safe; 13	Comfortable with him taking the pill - benefits; 14	Comfortable with him taking the pill - harm to self; 15	Comfortable with him taking the pill - other side effect; 16	Comfortable with him taking the pill - benefits; 17	Comfortable with him taking the pill - other side effect; 18	Comfortable with him taking the pill - side effect; 19	Comfortable with him taking the pill - positive benefits; 20	Comfortable with him taking the pill - no risk of side effects.</t>
+          <t xml:space="preserve"> 21	Comfortable with him taking the pill - positive benefits; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision.</t>
         </is>
       </c>
     </row>
@@ -704,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - other; 2	Not comfortable with him taking the pill - enhancement; 6	Not comfortable with him taking the pill - brain; 7	Not comfortable with him taking the pill - other; 8	Not comfortable with him taking the pill - affect; 9	Not comfortable with him taking the pill - sociability; 10	Not comfortable with him taking the pill - benefits; 11	Not comfortable with him taking the pill - risks; 12	Not comfortable with him taking the pill - impact; 13	Not comfortable with him taking the pill - fairness; 14	Not comfortable with him taking the pill - social; 15	Not comfortable with him taking the pill - brain; 16	Not comfortable with him taking the pill - other; 17	Not comfortable with him taking the pill - status quo; 18	Not comfortable with him taking the pill - permanent changes; 19	Not comfortable with him taking the pill - permanent changes; 20	Not comfortable with him taking the pill - comfortable with pills and medication</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -719,14 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive; 8	Not comfortable with him taking the pill - affective; 9	Comfortable with him taking the pill - naturalistic moral concerns; 5	Comfortable with him taking the pill - risks outweight the benefits; 9	Comfortable with him taking the pill - dependence, addiction; 10	Comfortable with him taking the pill - social pressure to fit in; 11	Comfortable with him taking the pill - legal or prescribed
-12	Not comfortable with him taking the pill - brain; 13	Not comfortable with him taking the pill - cognitive; 14	Not comfortable with him taking the pill - affect; 15	Comfortable with him taking the pill - naturalistic moral concerns; 16	Comfortable with him taking the pill - status quo: new pill; 17	Comfortable with him taking the pill - permanent changes (brain concern?)
-18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 20	Comfortable with him taking the pill - comfortable with pills and medication
-21	Comfortable with him taking the pill - his choice; 22	Comfortable with him taking the pill - permanent changes (brain concern?)
-23	Comfortable with him taking the pill - his choice; 24	Comfortable with him taking the pill - safe, legal or prescribed
-25	Comfortable with him taking the pill - his choice; 26	Comfortable with him taking the pill - safe, legal or prescribed
-27	Comfortable with him taking the pill - his choice; 28	Comfortable with him taking the pill - other specific reason
-29	Not comfortable with him taking the pill - his choice; 30	Not comfortable with him taking the pill - not changing anything fundamental</t>
+          <t xml:space="preserve"> 21	Comfortable with him taking the pill - positive benefits; 9	Not comfortable with him taking the pill - dependence, addiction</t>
         </is>
       </c>
     </row>
@@ -741,13 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other side effect; 2	Not comfortable with him taking the pill - general concerns about pills; 7	Not comfortable with him taking the pill - risks; 6	Not comfortable with him taking the pill - dependence, addiction; 5	Not comfortable with him taking the pill - social pressure to fit in; 8	Not comfortable with him taking the pill - legal or prescribed
-9	Not comfortable with him taking the pill - legal or prescribed
-10	Not comfortable with him taking the pill - no harm to himself or others
-11	Not comfortable with him taking the pill - other specific reason
-12	Not comfortable with him taking the pill - final decision
-13	Not comfortable with him taking the pill - personal preference
-14	Not comfortable with him taking the pill - benefits; 15	Not comfortable with him taking the pill - subclinical deficit; 16	Not comfortable with him taking the pill - general concerns about pills; 19	Not comfortable with him taking the pill - benefits; 20	Not comfortable with him taking the pill - subclinical deficit; 21	Not comfortable with him taking the pill - general concerns about pills; 22	Not comfortable with him taking the pill - benefits; 23	Not comfortable with him taking the pill - subclinical deficit; 24	Not comfortable with him taking the pill - general concerns about pills; 25	Not comfortable with him taking the pill - benefits; 26	Not comfortable with him taking the pill - subclinical deficit; 27	Not comfortable with him taking the pill - general concerns about pills; 28	Not comfortable with him taking the pill - benefits; 29	Not comfortable with him taking the pill - subclinical deficit; 30	Not comfortable with him taking the pill - general concerns about pills; 31	Not comfortable with him taking the pill - benefits; 32	Not comfortable with him taking the pill - subclinical deficit; 33	Not comfortable with him taking the pill - general concerns about pills; 34	Not comfortable with him taking the pill - benefits; 35	Not comfortable with him taking the pill - subclinical deficit; 36	Not comfortable with him taking the pill</t>
+          <t xml:space="preserve"> 19	Comfortable with him taking the pill - minor or no side effects; 24	Comfortable with him taking the pill - consent/informed decision; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -762,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - social; 8	Not comfortable with him taking the pill - general; 6	Not comfortable with him taking the pill - moral; 25	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 8	Not comfortable with him taking the pill - risks outweight the benefits; 22	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves.</t>
         </is>
       </c>
     </row>
@@ -777,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other side effect; 2	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - moral concerns; 9	Comfortable with him taking the pill - consent/informed decision; 6	Not comfortable with him taking the pill - brain/ionic; 7	Not comfortable with him taking the pill - social pressure; 8	Not comfortable with him taking the pill - legal/prescribed; 9	Comfortable with him taking the pill - other side effect; 5	Not comfortable with him taking the pill - general concerns about pills - 8	Not comfortable with him taking the pill - moral concerns - 9	Comfortable with him taking the pill - new science - 5</t>
+          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 15	Not comfortable with him taking the pill - permanent changes (brain concern?); 16	Comfortable with him taking the pill - no specific reason.</t>
         </is>
       </c>
     </row>
@@ -792,9 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - clear case of enhancement; 2	Not comfortable with him taking the pill - changing something fundamental; 4	Not comfortable with him taking the pill - general concerns about pills - 6	Not comfortable with him taking the pill - side effect; 8	Not comfortable with him taking the pill - benefits outweight the risks; 10	Comfortable with him taking the pill - consent/informed decision - 12	Not comfortable with him taking the pill - legal or prescribed - 14	Not comfortable with him taking the pill - social pressure - 16	Not comfortable with him taking the pill - side effect; 18	Comfortable with him taking the pill - permanent changes - 20	Comfortable with him taking the pill - harmless - 24	Comfortable with him taking the pill - other specific reasonComment:
-"John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-1</t>
+          <t xml:space="preserve"> 17	Comfortable with him taking the pill - not changing anything fundamental; 26	Comfortable with him taking the pill - legal or prescribed; 28	Comfortable with him taking the pill - other specific reason</t>
         </is>
       </c>
     </row>
@@ -809,19 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - moral concerns; 9	Comfortable with him taking the pill - consent/informed decision; 6	Not comfortable with him taking the pill - risk/undeathful benefits; 5	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - God or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Comfortable with him taking the pill - permanent changes (brain concern?)
-15	Comfortable with him taking the pill - his choice; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - minor or no side effects; 20	Comfortable with him taking the pill - comfortable with pills and medication
-21	Comfortable with him taking the pill - comfortable with medications
-22	Comfortable with him taking the pill - positive benefits
-23	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves
-24	Comfortable with him taking the pill - benefits outweight the risks
-25	Comfortable with him taking the pill - consent/informed decision
-26	Comfortable with him taking the pill - no pressure to take it
-27	Comfortable with him taking the pill - legal or prescribed
-28	Comfortable with him taking the pill - no harm to himself or others
-29	Comfortable with him taking the pill - other specific reason
-30	Other</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 8	Not comfortable with him taking the pill - risks outweight the benefits; 10	Not comfortable with him taking the pill - social pressure to fit in; 13	Not comfortable with him taking the pill - other: fairness, social issues, character.</t>
         </is>
       </c>
     </row>
@@ -836,24 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing the brain; 5	Not comfortable with him taking the pill - general concerns about pills; 6	Not comfortable with him taking the pill - side effect; 7	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - God or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Not comfortable with him taking the pill - not changing anything fundamental
-16	Comfortable with him taking the pill - his choice
-17	Comfortable with him taking the pill - minor or no side effects
-18	Comfortable with him taking the pill - comfortable with pills and medication
-19	Comfortable with him taking the pill - comfortable with medications
-20	Comfortable with him taking the pill - positive benefits
-21	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves
-22	Comfortable with him taking the pill - benefits outweight the risks
-23	Comfortable with him taking the pill - consent/information-wise decision
-24	Comfortable with him taking the pill - no pressure to take it
-25	Comfortable with him taking the pill - legal or prescribed
-26	Comfortable with him taking the pill - no harm to himself or others
-27	Comfortable with him taking the pill - other specific reason
-28	Comfortable with him taking the pill - the benefits over the risks framework
-29	Comfortable with him taking the pill - overall I am comfortable with the idea of using science and other means to improve oneself.
-30	Comfortable with him taking the pill - permanent changes (brain concern?)</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 25	Comfortable with him taking the pill - no pressure to take it</t>
         </is>
       </c>
     </row>
@@ -868,34 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1	John is comfortable with him taking the pill.
-2	John is comfortable with him taking the pill - changing the brain.
-3	John is not comfortable with him taking the pill - no specific reason.
-4	John is comfortable with him taking the pill - his choice.
-5	John is comfortable with him taking the pill - positive benefits.
-6	John is comfortable with him taking the pill - benefits outweight the risks.
-7	John is comfortable with him taking the pill - consent/informed decision.
-8	John is comfortable with him taking the pill - no pressure to take it.
-9	John is comfortable with him taking the pill - legal or prescribed.
-10	John is comfortable with him taking the pill - no harm to himself or others.
-11	John is comfortable with him taking the pill - other specific reason.
-12	John is comfortable with him taking the pill - the feeling of the pill.
-13	John is comfortable with him taking the pill - the feeling of the pill.
-14	John is comfortable with him taking the pill - permanent changes in the brain.
-15	John is comfortable with him taking the pill - permanent changes in the brain.
-16	John is comfortable with him taking the pill - feeling the pill.
-17	John is comfortable with him taking the pill - feeling the pill.
-18	John is comfortable with him taking the pill - the feeling of the pill.
-19	John is comfortable with him taking the pill - the feeling of the pill.
-20	John is comfortable with him taking the pill - comfortable with pills and medication.
-21	John is comfortable with him taking the pill - comfortable with pills and medication.
-22	John is comfortable with him taking the pill - comfortable with pills and medication.
-23	John is comfortable with him taking the pill - permanent changes in the brain.
-24	John is comfortable with him taking the pill - feeling the pill.
-25	John is comfortable with him taking the pill - feeling the pill.
-26	John is comfortable with him taking the pill - the feeling of the pill.
-27	John is comfortable with him</t>
+          <t xml:space="preserve"> 19	Comfortable with him taking the pill - minor or no side effects; 21	Comfortable with him taking the pill - positive benefits; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision.</t>
         </is>
       </c>
     </row>
@@ -910,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive; 7	Not comfortable with him taking the pill - affective; 8	Not comfortable with him taking the pill - socialComment:It's kind of weird for him to take a pill to become more sociable, but I think he's good with his personal life.</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 10	Not comfortable with him taking the pill - social pressure to fit in; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -925,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - cognitive; 7	Not comfortable with him taking the pill - affective</t>
+          <t xml:space="preserve"> 21	Comfortable with him taking the pill - positive benefits; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision.</t>
         </is>
       </c>
     </row>
@@ -940,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - general concerns about pills; 1	Not comfortable with him taking the pill - moral concernsComment:John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.</t>
+          <t xml:space="preserve"> 29	Other</t>
         </is>
       </c>
     </row>
@@ -955,28 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other side effect; 2	Not comfortable with him taking the pill - brain concern; 8	Not comfortable with him taking the pill - benefits; 6	Not comfortable with him taking the pill - risks; 7	Not comfortable with him taking the pill - social pressure to fit in; 8	Not comfortable with him taking the pill - social pressure to fit in; 9	Not comfortable with him taking the pill - legal or prescribed
-10	Not comfortable with him taking the pill - legal or prescribed
-11	Not comfortable with him taking the pill - new pill
-12	Not comfortable with him taking the pill - permanent changes (brain concern?)
-13	Not comfortable with him taking the pill - permanent changes (brain concern?)
-14	Comfortable with him taking the pill - his choice
-15	Comfortable with him taking the pill - no specific reason
-16	Comfortable with him taking the pill - not changing anything fundamental
-17	Comfortable with him taking the pill - his choice
-18	Comfortable with him taking the pill - minor or no side effects
-19	Comfortable with him taking the pill - comfortable with pills and medication
-20	Comfortable with him taking the pill - comfortable with medications
-21	Comfortable with him taking the pill - positive benefits
-22	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves
-23	Comfortable with him taking the pill - benefits outweight the risks
-24	Comfortable with him taking the pill - consent/information-driven decision
-25	Comfortable with him taking the pill - no pressure to take it
-26	Comfortable with him taking the pill - legal or prescribed
-27	Comfortable with him taking the pill - legal or prescribed
-28	Comfortable with him taking the pill - other specific reason
-29	Other
-Comment: "John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well,</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 25	Comfortable with him taking the pill - no pressure to take it; 27	Comfortable with him taking the pill - no harm to himself or others.</t>
         </is>
       </c>
     </row>
@@ -991,10 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill â€“ consent informed decision; 6	Not comfortable with him taking the pill - social pressure to fit in; 8	Not comfortable with him taking the pill - legal or prescribed; 9	Not comfortable with him taking the pill - 10	Not comfortable with him taking the pill - 11	Not comfortable with him taking the pill - 12	Not comfortable with him taking the pill - 13	Not comfortable with him taking the pill - 14	Not comfortable with him taking the pill - 15	Comfortable with him taking the pill - no specific reason;27	Comfortable with him taking the pill - other specific reasonComment:
-John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
- Comment:
-John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 27	Comfortable with him taking the pill - no harm to himself or others.</t>
         </is>
       </c>
     </row>
@@ -1009,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 2	Not comfortable with him taking the pill - changing something fundamental; 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 10	Not comfortable with him taking the pill - dependence, addiction; 12	Not comfortable with him taking the pill - social pressure to fit in; 14	Not comfortable with him taking the pill - status quo : new pill; 16	Not comfortable with him taking the pill - permanent changes (brain concern?); 18	Comfortable with him taking the pill - his choice; 20	Comfortable with him taking the pill - minor or no side effects; 24	Comfortable with him taking the pill - consent/informed decision; 26	Comfortable with him taking the pill - no pressure to take it; 28	Comfortable with him taking the pill - legal or prescribed; 30	Comfortable with him taking the pill - no harm to himself or others; 32	Comfortable with him taking the pill - other specific reason</t>
+          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - changing the brain; 15	Not comfortable with him taking the pill - permanent changes (brain concern?)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - social; 8	Not comfortable with him taking the pill - risks; 9	Comfortable with him taking the pill - consent/informed decision; 6	Not comfortable with him taking the pill - brain; 25	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 4	Not comfortable with him taking the pill - side effect; 19	Comfortable with him taking the pill - minor or no side effects</t>
         </is>
       </c>
     </row>
